--- a/FunctionalUI_FrameWork_CraftWorld/src/test/java/testData/ServerReport.xlsx
+++ b/FunctionalUI_FrameWork_CraftWorld/src/test/java/testData/ServerReport.xlsx
@@ -12,42 +12,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+  <si>
+    <t>sportsBookSlave</t>
+  </si>
+  <si>
+    <t>sportsBookMaster</t>
+  </si>
+  <si>
+    <t>sportsBookDB</t>
+  </si>
+  <si>
+    <t>corePlatformSlave</t>
+  </si>
+  <si>
+    <t>corePlatformMaster</t>
+  </si>
+  <si>
+    <t>corePlatformDB</t>
+  </si>
+  <si>
+    <t>SystemMemory: 32GB/28.75GB  Cpu:25%</t>
+  </si>
+  <si>
+    <t>SystemMemory: 64GB/59.1GB  Cpu:0%</t>
+  </si>
+  <si>
+    <t>SystemMemory: 128GB/115.01GB  Cpu:8%</t>
+  </si>
+  <si>
+    <t>Ram: 64GB/59.43GB  Cpu:1%</t>
+  </si>
+  <si>
+    <t>Ram: 64GB/56.79GB  Cpu:6%</t>
+  </si>
+  <si>
+    <t>Ram: 64GB/58.42GB  Cpu:1%</t>
+  </si>
   <si>
     <t>SystemMemory: 32GB/28.75GB  Cpu:23%</t>
   </si>
   <si>
-    <t>SystemMemory: 32GB/28.75GB  Cpu:22%</t>
-  </si>
-  <si>
-    <t>SystemMemory: 64GB/59.01GB  Cpu:2%</t>
-  </si>
-  <si>
-    <t>SystemMemory: 64GB/59.01GB  Cpu:0%</t>
-  </si>
-  <si>
-    <t>SystemMemory: 128GB/115.06GB  Cpu:10%</t>
-  </si>
-  <si>
-    <t>SystemMemory: 128GB/115.06GB  Cpu:12%</t>
-  </si>
-  <si>
-    <t>SystemMemory: 64GB/59.48GB  Cpu:0%</t>
-  </si>
-  <si>
-    <t>SystemMemory: 64GB/56.8GB  Cpu:5%</t>
-  </si>
-  <si>
-    <t>SystemMemory: 64GB/56.79GB  Cpu:6%</t>
-  </si>
-  <si>
-    <t>SystemMemory: 64GB/56.79GB  Cpu:11%</t>
-  </si>
-  <si>
-    <t>SystemMemory: 64GB/58.43GB  Cpu:2%</t>
-  </si>
-  <si>
-    <t>SystemMemory: 64GB/58.43GB  Cpu:0%</t>
+    <t>SystemMemory: 64GB/59.1GB  Cpu:1%</t>
+  </si>
+  <si>
+    <t>SystemMemory: 128GB/115.01GB  Cpu:9%</t>
+  </si>
+  <si>
+    <t>Ram: 64GB/56.79GB  Cpu:4%</t>
+  </si>
+  <si>
+    <t>Ram: 64GB/59.43GB  Cpu:0%</t>
+  </si>
+  <si>
+    <t>Ram: 64GB/56.79GB  Cpu:7%</t>
+  </si>
+  <si>
+    <t>Ram: 64GB/58.42GB  Cpu:0%</t>
   </si>
 </sst>
 </file>
@@ -92,23 +113,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.25" customWidth="true"/>
-    <col min="2" max="2" width="31.25" customWidth="true"/>
-    <col min="3" max="3" width="31.25" customWidth="true"/>
-    <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="31.25" customWidth="true"/>
-    <col min="6" max="6" width="31.25" customWidth="true"/>
+    <col min="1" max="1" width="46.875" customWidth="true"/>
+    <col min="2" max="2" width="46.875" customWidth="true"/>
+    <col min="3" max="3" width="46.875" customWidth="true"/>
+    <col min="4" max="4" width="46.875" customWidth="true"/>
+    <col min="5" max="5" width="46.875" customWidth="true"/>
+    <col min="6" max="6" width="46.875" customWidth="true"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/FunctionalUI_FrameWork_CraftWorld/src/test/java/testData/ServerReport.xlsx
+++ b/FunctionalUI_FrameWork_CraftWorld/src/test/java/testData/ServerReport.xlsx
@@ -12,63 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>sportsBookSlave</t>
+    <t>SportsBook Slave</t>
   </si>
   <si>
-    <t>sportsBookMaster</t>
+    <t>SportsBook Master</t>
   </si>
   <si>
-    <t>sportsBookDB</t>
+    <t>SportsBook DB</t>
   </si>
   <si>
-    <t>corePlatformSlave</t>
+    <t>CorePlatform Slave</t>
   </si>
   <si>
-    <t>corePlatformMaster</t>
+    <t>CorePlatform Master</t>
   </si>
   <si>
-    <t>corePlatformDB</t>
+    <t>CorePlatform DB</t>
   </si>
   <si>
-    <t>SystemMemory: 32GB/28.75GB  Cpu:25%</t>
-  </si>
-  <si>
-    <t>SystemMemory: 64GB/59.1GB  Cpu:0%</t>
-  </si>
-  <si>
-    <t>SystemMemory: 128GB/115.01GB  Cpu:8%</t>
-  </si>
-  <si>
-    <t>Ram: 64GB/59.43GB  Cpu:1%</t>
-  </si>
-  <si>
-    <t>Ram: 64GB/56.79GB  Cpu:6%</t>
-  </si>
-  <si>
-    <t>Ram: 64GB/58.42GB  Cpu:1%</t>
-  </si>
-  <si>
-    <t>SystemMemory: 32GB/28.75GB  Cpu:23%</t>
-  </si>
-  <si>
-    <t>SystemMemory: 64GB/59.1GB  Cpu:1%</t>
-  </si>
-  <si>
-    <t>SystemMemory: 128GB/115.01GB  Cpu:9%</t>
-  </si>
-  <si>
-    <t>Ram: 64GB/56.79GB  Cpu:4%</t>
-  </si>
-  <si>
-    <t>Ram: 64GB/59.43GB  Cpu:0%</t>
-  </si>
-  <si>
-    <t>Ram: 64GB/56.79GB  Cpu:7%</t>
-  </si>
-  <si>
-    <t>Ram: 64GB/58.42GB  Cpu:0%</t>
+    <t>Timestamp</t>
   </si>
 </sst>
 </file>
@@ -113,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -125,6 +89,7 @@
     <col min="4" max="4" width="46.875" customWidth="true"/>
     <col min="5" max="5" width="46.875" customWidth="true"/>
     <col min="6" max="6" width="46.875" customWidth="true"/>
+    <col min="7" max="7" width="46.875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -146,65 +111,8 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/FunctionalUI_FrameWork_CraftWorld/src/test/java/testData/ServerReport.xlsx
+++ b/FunctionalUI_FrameWork_CraftWorld/src/test/java/testData/ServerReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>SportsBook Slave</t>
   </si>
@@ -33,6 +33,69 @@
   </si>
   <si>
     <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Ram: 32GB/28.59GB  Cpu:25%</t>
+  </si>
+  <si>
+    <t>Ram: 64GB/58.51GB  Cpu:9%</t>
+  </si>
+  <si>
+    <t>Ram: 128GB/112.21GB  Cpu:9%</t>
+  </si>
+  <si>
+    <t>Ram: 64GB/59.58GB  Cpu:0%</t>
+  </si>
+  <si>
+    <t>Ram: 64GB/57.1GB  Cpu:0%</t>
+  </si>
+  <si>
+    <t>Ram: 64GB/58.37GB  Cpu:1%</t>
+  </si>
+  <si>
+    <t>2022-12-23 at 09:46:52 AMT</t>
+  </si>
+  <si>
+    <t>Ram: 32GB/28.59GB  Cpu:24%</t>
+  </si>
+  <si>
+    <t>Ram: 64GB/58.51GB  Cpu:8%</t>
+  </si>
+  <si>
+    <t>Ram: 64GB/57.09GB  Cpu:0%</t>
+  </si>
+  <si>
+    <t>Ram: 64GB/58.37GB  Cpu:0%</t>
+  </si>
+  <si>
+    <t>2022-12-23 at 09:47:02 AMT</t>
+  </si>
+  <si>
+    <t>Ram: 32GB/28.59GB  Cpu:29%</t>
+  </si>
+  <si>
+    <t>Ram: 64GB/57.09GB  Cpu:2%</t>
+  </si>
+  <si>
+    <t>2022-12-23 at 09:47:12 AMT</t>
+  </si>
+  <si>
+    <t>Ram: 32GB/28.59GB  Cpu:27%</t>
+  </si>
+  <si>
+    <t>Ram: 64GB/57.09GB  Cpu:1%</t>
+  </si>
+  <si>
+    <t>2022-12-23 at 09:47:21 AMT</t>
+  </si>
+  <si>
+    <t>Ram: 32GB/28.59GB  Cpu:26%</t>
+  </si>
+  <si>
+    <t>Ram: 128GB/112.21GB  Cpu:7%</t>
+  </si>
+  <si>
+    <t>2022-12-23 at 09:47:31 AMT</t>
   </si>
 </sst>
 </file>
@@ -77,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -115,6 +178,121 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
